--- a/paper_analysis/Results/Results (PW=True, rho=1.0, Flattop)/N_xi Fitted Parameters (rho=1.0, Flattop, PW=True, BW=50Hz).xlsx
+++ b/paper_analysis/Results/Results (PW=True, rho=1.0, Flattop)/N_xi Fitted Parameters (rho=1.0, Flattop, PW=True, BW=50Hz).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,34 +740,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2729.33349609375</v>
+        <v>3025.4150390625</v>
       </c>
       <c r="E7" t="n">
-        <v>17.07442874795397</v>
+        <v>22.03437012254737</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3455740590876604</v>
+        <v>0.9201054621103431</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006255896823305422</v>
+        <v>0.007283090034937906</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001266148162480875</v>
+        <v>0.000304125368000901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6706428291342458</v>
+        <v>0.6248589894832212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01509491083023</v>
+        <v>0.05068049480842369</v>
       </c>
       <c r="K7" t="n">
-        <v>2.786949281288827e-05</v>
+        <v>1.936180750695071e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01696145124716553</v>
+        <v>0.02494331065759637</v>
       </c>
       <c r="M7" t="n">
-        <v>46.29345703125</v>
+        <v>75.4638671875</v>
       </c>
     </row>
     <row r="8">
@@ -875,34 +875,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2174.853515625</v>
+        <v>1814.17236328125</v>
       </c>
       <c r="E10" t="n">
-        <v>19.08769340115417</v>
+        <v>14.41794146872346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6029741924615151</v>
+        <v>0.4126290387673415</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008776542081579611</v>
+        <v>0.007947393401278631</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002772481862017428</v>
+        <v>0.0002274475386787556</v>
       </c>
       <c r="I10" t="n">
-        <v>1.188186669764941</v>
+        <v>0.5220436024098243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04355799207321316</v>
+        <v>0.03103487969969997</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002558288680493385</v>
+        <v>5.725578075090223e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02294784580498866</v>
+        <v>0.02893424036281179</v>
       </c>
       <c r="M10" t="n">
-        <v>49.908203125</v>
+        <v>52.49169921875</v>
       </c>
     </row>
     <row r="11">
@@ -920,34 +920,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2497.8515625</v>
+        <v>2174.853515625</v>
       </c>
       <c r="E11" t="n">
-        <v>20.19989110422493</v>
+        <v>19.08769340115417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5164138207944668</v>
+        <v>0.6029741924615151</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008086906126642555</v>
+        <v>0.008776542081579611</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002067431982537861</v>
+        <v>0.0002772481862017428</v>
       </c>
       <c r="I11" t="n">
-        <v>1.047526780816853</v>
+        <v>1.188186669764941</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02944259151717022</v>
+        <v>0.04355799207321316</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001397919349752583</v>
+        <v>0.0002558288680493385</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02095238095238095</v>
+        <v>0.02294784580498866</v>
       </c>
       <c r="M11" t="n">
-        <v>52.3359375</v>
+        <v>49.908203125</v>
       </c>
     </row>
     <row r="12">
@@ -1133,91 +1133,91 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALrearSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2804.69970703125</v>
+        <v>2417.10205078125</v>
       </c>
       <c r="E16" t="n">
-        <v>87.49025651730204</v>
+        <v>12.86571332642489</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3976094210434014</v>
+        <v>0.4004277851812959</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03119416181987971</v>
+        <v>0.005322784498183047</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001417654161144644</v>
+        <v>0.0001656644100119275</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4632914304846778</v>
+        <v>0.4027794441143995</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00234488161220565</v>
+        <v>0.01710203301750446</v>
       </c>
       <c r="K16" t="n">
-        <v>3.945998934975512e-06</v>
+        <v>9.660063939272482e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08380952380952381</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="M16" t="n">
-        <v>235.060546875</v>
+        <v>36.17431640625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALrearSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2944.66552734375</v>
+        <v>2777.783203125</v>
       </c>
       <c r="E17" t="n">
-        <v>114.3778665111703</v>
+        <v>14.93516859188706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6492403179190349</v>
+        <v>0.3183299278121978</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03884239668277212</v>
+        <v>0.005376650191809435</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002204801570467955</v>
+        <v>0.0001145985501870979</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6928626338475619</v>
+        <v>0.3094148909099539</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004081491120858047</v>
+        <v>0.007884379650291264</v>
       </c>
       <c r="K17" t="n">
-        <v>2.062322587685879e-05</v>
+        <v>4.460478742123572e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1017687074829932</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="M17" t="n">
-        <v>299.6748046875</v>
+        <v>41.572265625</v>
       </c>
     </row>
     <row r="18">
@@ -1235,34 +1235,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3865.2099609375</v>
+        <v>2664.73388671875</v>
       </c>
       <c r="E18" t="n">
-        <v>182.9830605618112</v>
+        <v>22.66260497482628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5707099869666853</v>
+        <v>0.5907296308754518</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04734104030856553</v>
+        <v>0.008504640965380649</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001476530363769063</v>
+        <v>0.0002216842866823199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7156573840056111</v>
+        <v>0.3578298569341841</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002267198674290431</v>
+        <v>0.01531231635756451</v>
       </c>
       <c r="K18" t="n">
-        <v>8.408635382046962e-06</v>
+        <v>6.33256379668961e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1217233560090703</v>
+        <v>0.02793650793650794</v>
       </c>
       <c r="M18" t="n">
-        <v>470.486328125</v>
+        <v>74.443359375</v>
       </c>
     </row>
     <row r="19">
@@ -1272,42 +1272,42 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JIrearSOAEwf2.mat</t>
+          <t>ALrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2810.0830078125</v>
+        <v>2804.69970703125</v>
       </c>
       <c r="E19" t="n">
-        <v>156.7173922031687</v>
+        <v>87.49025651730204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.46134895042126</v>
+        <v>0.3976094210434014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05576966650717012</v>
+        <v>0.03119416181987971</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001641762713551994</v>
+        <v>0.0001417654161144644</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5964241868867926</v>
+        <v>0.4632914304846778</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001701025575254068</v>
+        <v>0.00234488161220565</v>
       </c>
       <c r="K19" t="n">
-        <v>7.634638838749131e-06</v>
+        <v>3.945998934975512e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1506575963718821</v>
+        <v>0.08380952380952381</v>
       </c>
       <c r="M19" t="n">
-        <v>423.3603515625</v>
+        <v>235.060546875</v>
       </c>
     </row>
     <row r="20">
@@ -1317,42 +1317,42 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JIrearSOAEwf2.mat</t>
+          <t>ALrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2341.73583984375</v>
+        <v>2944.66552734375</v>
       </c>
       <c r="E20" t="n">
-        <v>479.555295997796</v>
+        <v>114.3778665111703</v>
       </c>
       <c r="F20" t="n">
-        <v>1.919897541711095</v>
+        <v>0.6492403179190349</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2047862478074358</v>
+        <v>0.03884239668277212</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008198608523834176</v>
+        <v>0.0002204801570467955</v>
       </c>
       <c r="I20" t="n">
-        <v>1.058276452892994</v>
+        <v>0.6928626338475619</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003568536786745607</v>
+        <v>0.004081491120858047</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001870251004680578</v>
+        <v>2.062322587685879e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4709297052154195</v>
+        <v>0.1017687074829932</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.79296875</v>
+        <v>299.6748046875</v>
       </c>
     </row>
     <row r="21">
@@ -1362,42 +1362,42 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JIrearSOAEwf2.mat</t>
+          <t>ALrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4048.2421875</v>
+        <v>3865.2099609375</v>
       </c>
       <c r="E21" t="n">
-        <v>476.5026788956193</v>
+        <v>182.9830605618112</v>
       </c>
       <c r="F21" t="n">
-        <v>3.529344408316463</v>
+        <v>0.5707099869666853</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1177060701474198</v>
+        <v>0.04734104030856553</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008718214585120998</v>
+        <v>0.0001476530363769063</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7999992533388895</v>
+        <v>0.7156573840056111</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005837635910347043</v>
+        <v>0.002267198674290431</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001502973565913902</v>
+        <v>8.408635382046962e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2883446712018141</v>
+        <v>0.1217233560090703</v>
       </c>
       <c r="M21" t="n">
-        <v>1167.2890625</v>
+        <v>470.486328125</v>
       </c>
     </row>
     <row r="22">
@@ -1415,34 +1415,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5840.88134765625</v>
+        <v>2341.73583984375</v>
       </c>
       <c r="E22" t="n">
-        <v>300.6386136262602</v>
+        <v>479.555295997796</v>
       </c>
       <c r="F22" t="n">
-        <v>1.039767922015545</v>
+        <v>1.919897541711095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0514714468128849</v>
+        <v>0.2047862478074358</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001780155870539587</v>
+        <v>0.0008198608523834176</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6121882487503901</v>
+        <v>1.058276452892994</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002018156696851747</v>
+        <v>0.003568536786745607</v>
       </c>
       <c r="K22" t="n">
-        <v>9.842581593112252e-06</v>
+        <v>0.0001870251004680578</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1317006802721088</v>
+        <v>0.4709297052154195</v>
       </c>
       <c r="M22" t="n">
-        <v>769.248046875</v>
+        <v>1102.79296875</v>
       </c>
     </row>
     <row r="23">
@@ -1452,42 +1452,42 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LSrearSOAEwf1.mat</t>
+          <t>JIrearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>732.12890625</v>
+        <v>5840.88134765625</v>
       </c>
       <c r="E23" t="n">
-        <v>252.5064028273421</v>
+        <v>300.6386136262602</v>
       </c>
       <c r="F23" t="n">
-        <v>1.2509079193303</v>
+        <v>1.039767922015545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.344893366006667</v>
+        <v>0.0514714468128849</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001708589715078335</v>
+        <v>0.0001780155870539587</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2686446655499396</v>
+        <v>0.6121882487503901</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001046314300608091</v>
+        <v>0.002018156696851747</v>
       </c>
       <c r="K23" t="n">
-        <v>3.657009039360795e-05</v>
+        <v>9.842581593112252e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7832199546485261</v>
+        <v>0.1317006802721088</v>
       </c>
       <c r="M23" t="n">
-        <v>573.41796875</v>
+        <v>769.248046875</v>
       </c>
     </row>
     <row r="24">
@@ -1497,42 +1497,42 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LSrearSOAEwf1.mat</t>
+          <t>JIrearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>985.14404296875</v>
+        <v>8311.81640625</v>
       </c>
       <c r="E24" t="n">
-        <v>420.3479881990751</v>
+        <v>839.1213305722345</v>
       </c>
       <c r="F24" t="n">
-        <v>2.118872595177975</v>
+        <v>6.341844237146279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4266868294024786</v>
+        <v>0.100955229225379</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002150825161356823</v>
+        <v>0.0007629913760339536</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2149279139450112</v>
+        <v>1.208846782220879</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0009656429708772982</v>
+        <v>0.008029627192780541</v>
       </c>
       <c r="K24" t="n">
-        <v>2.080228284943191e-05</v>
+        <v>0.0003824011048362776</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9578231292517007</v>
+        <v>0.233469387755102</v>
       </c>
       <c r="M24" t="n">
-        <v>943.59375</v>
+        <v>1940.5546875</v>
       </c>
     </row>
     <row r="25">
@@ -1542,42 +1542,42 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LSrearSOAEwf1.mat</t>
+          <t>JIrearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1636.5234375</v>
+        <v>8677.880859375</v>
       </c>
       <c r="E25" t="n">
-        <v>66.29727466470662</v>
+        <v>266.5817593020578</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3749933245920116</v>
+        <v>1.802641160814417</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04051104502724644</v>
+        <v>0.03071968417428326</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0002291402102770139</v>
+        <v>0.0002077282679983978</v>
       </c>
       <c r="I25" t="n">
-        <v>0.192698115364735</v>
+        <v>0.4823332637199795</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001088366444776957</v>
+        <v>0.003366862734636275</v>
       </c>
       <c r="K25" t="n">
-        <v>1.815054417489832e-06</v>
+        <v>1.113215322706964e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1047619047619048</v>
+        <v>0.07981859410430839</v>
       </c>
       <c r="M25" t="n">
-        <v>171.4453125</v>
+        <v>692.65625</v>
       </c>
     </row>
     <row r="26">
@@ -1595,34 +1595,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2228.6865234375</v>
+        <v>732.12890625</v>
       </c>
       <c r="E26" t="n">
-        <v>341.2843898405126</v>
+        <v>252.5064028273421</v>
       </c>
       <c r="F26" t="n">
-        <v>1.945445781860603</v>
+        <v>1.2509079193303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1531325227893062</v>
+        <v>0.344893366006667</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008729113589559333</v>
+        <v>0.001708589715078335</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5858853267359349</v>
+        <v>0.2686446655499396</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003188977202664096</v>
+        <v>0.001046314300608091</v>
       </c>
       <c r="K26" t="n">
-        <v>6.668305836544281e-05</v>
+        <v>3.657009039360795e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3701587301587301</v>
+        <v>0.7832199546485261</v>
       </c>
       <c r="M26" t="n">
-        <v>824.9677734374999</v>
+        <v>573.41796875</v>
       </c>
     </row>
     <row r="27">
@@ -1632,42 +1632,42 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TH13RearwaveformSOAE.mat</t>
+          <t>LSrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>904.39453125</v>
+        <v>985.14404296875</v>
       </c>
       <c r="E27" t="n">
-        <v>174.3082295554562</v>
+        <v>420.3479881990751</v>
       </c>
       <c r="F27" t="n">
-        <v>0.917644883440353</v>
+        <v>2.118872595177975</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1927347231020269</v>
+        <v>0.4266868294024786</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001014651075092238</v>
+        <v>0.002150825161356823</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2277788442429094</v>
+        <v>0.2149279139450112</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0009471288325591117</v>
+        <v>0.0009656429708772982</v>
       </c>
       <c r="K27" t="n">
-        <v>1.809324038240064e-05</v>
+        <v>2.080228284943191e-05</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4659410430839002</v>
+        <v>0.9578231292517007</v>
       </c>
       <c r="M27" t="n">
-        <v>421.39453125</v>
+        <v>943.59375</v>
       </c>
     </row>
     <row r="28">
@@ -1677,42 +1677,42 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TH13RearwaveformSOAE.mat</t>
+          <t>LSrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1518.0908203125</v>
+        <v>1636.5234375</v>
       </c>
       <c r="E28" t="n">
-        <v>359.8672946868773</v>
+        <v>66.29727466470662</v>
       </c>
       <c r="F28" t="n">
-        <v>0.666145180074013</v>
+        <v>0.3749933245920116</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2370525464430372</v>
+        <v>0.04051104502724644</v>
       </c>
       <c r="H28" t="n">
-        <v>0.000438804563706463</v>
+        <v>0.0002291402102770139</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5265950506925974</v>
+        <v>0.192698115364735</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0007619681549179782</v>
+        <v>0.001088366444776957</v>
       </c>
       <c r="K28" t="n">
-        <v>1.419701261760541e-05</v>
+        <v>1.815054417489832e-06</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5507482993197279</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="M28" t="n">
-        <v>836.0859375</v>
+        <v>171.4453125</v>
       </c>
     </row>
     <row r="29">
@@ -1722,42 +1722,42 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TH13RearwaveformSOAE.mat</t>
+          <t>LSrearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1674.20654296875</v>
+        <v>2228.6865234375</v>
       </c>
       <c r="E29" t="n">
-        <v>528.8162589749792</v>
+        <v>341.2843898405126</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5713072174199632</v>
+        <v>1.945445781860603</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3158608244579353</v>
+        <v>0.1531325227893062</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0003412405833792199</v>
+        <v>0.0008729113589559333</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6639396401370943</v>
+        <v>0.5858853267359349</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0005583159418984252</v>
+        <v>0.003188977202664096</v>
       </c>
       <c r="K29" t="n">
-        <v>1.078253131180573e-05</v>
+        <v>6.668305836544281e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7522902494331066</v>
+        <v>0.3701587301587301</v>
       </c>
       <c r="M29" t="n">
-        <v>1259.4892578125</v>
+        <v>824.9677734374999</v>
       </c>
     </row>
     <row r="30">
@@ -1775,169 +1775,169 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2040.27099609375</v>
+        <v>904.39453125</v>
       </c>
       <c r="E30" t="n">
-        <v>208.0473064227648</v>
+        <v>174.3082295554562</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5284455061204444</v>
+        <v>0.917644883440353</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1019704278603611</v>
+        <v>0.1927347231020269</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0002590075078909579</v>
+        <v>0.001014651075092238</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8268251693829948</v>
+        <v>0.2277788442429094</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001774903512838543</v>
+        <v>0.0009471288325591117</v>
       </c>
       <c r="K30" t="n">
-        <v>2.405661583565072e-05</v>
+        <v>1.809324038240064e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2434467120181406</v>
+        <v>0.4659410430839002</v>
       </c>
       <c r="M30" t="n">
-        <v>496.697265625</v>
+        <v>421.39453125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>TH13RearwaveformSOAE.mat</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8009.765625</v>
+        <v>1518.0908203125</v>
       </c>
       <c r="E31" t="n">
-        <v>43.29487562242978</v>
+        <v>359.8672946868773</v>
       </c>
       <c r="F31" t="n">
-        <v>1.039938136715481</v>
+        <v>0.666145180074013</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005405261233524517</v>
+        <v>0.2370525464430372</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001298337785901795</v>
+        <v>0.000438804563706463</v>
       </c>
       <c r="I31" t="n">
-        <v>0.459844209353125</v>
+        <v>0.5265950506925974</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01317865708594567</v>
+        <v>0.0007619681549179782</v>
       </c>
       <c r="K31" t="n">
-        <v>1.256313391734925e-05</v>
+        <v>1.419701261760541e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>0.015</v>
+        <v>0.5507482993197279</v>
       </c>
       <c r="M31" t="n">
-        <v>120.146484375</v>
+        <v>836.0859375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>TH13RearwaveformSOAE.mat</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8431.640625</v>
+        <v>2040.27099609375</v>
       </c>
       <c r="E32" t="n">
-        <v>37.17593825623822</v>
+        <v>208.0473064227648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1858790140599719</v>
+        <v>0.5284455061204444</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0044090990009715</v>
+        <v>0.1019704278603611</v>
       </c>
       <c r="H32" t="n">
-        <v>2.204541468582479e-05</v>
+        <v>0.0002590075078909579</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5650968007147001</v>
+        <v>0.8268251693829948</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003214103138169463</v>
+        <v>0.001774903512838543</v>
       </c>
       <c r="K32" t="n">
-        <v>8.417125296859614e-07</v>
+        <v>2.405661583565072e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>0.013</v>
+        <v>0.2434467120181406</v>
       </c>
       <c r="M32" t="n">
-        <v>109.611328125</v>
+        <v>496.697265625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>TH13RearwaveformSOAE.mat</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7892.578125</v>
+        <v>2697.03369140625</v>
       </c>
       <c r="E33" t="n">
-        <v>44.63246583569445</v>
+        <v>30.1396253738998</v>
       </c>
       <c r="F33" t="n">
-        <v>1.169296294380351</v>
+        <v>0.4402926945239466</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005654991959385191</v>
+        <v>0.01117510154579671</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0001481513740961989</v>
+        <v>0.0001632507209408924</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5682313410751598</v>
+        <v>0.559961789885149</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01972339157692613</v>
+        <v>0.01279568226536033</v>
       </c>
       <c r="K33" t="n">
-        <v>1.696991248389281e-05</v>
+        <v>8.322899288632677e-06</v>
       </c>
       <c r="L33" t="n">
-        <v>0.016</v>
+        <v>0.03691609977324263</v>
       </c>
       <c r="M33" t="n">
-        <v>126.28125</v>
+        <v>99.56396484375</v>
       </c>
     </row>
     <row r="34">
@@ -1947,42 +1947,42 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7500</v>
+        <v>4353.515625</v>
       </c>
       <c r="E34" t="n">
-        <v>41.73427543351779</v>
+        <v>24.37270902562512</v>
       </c>
       <c r="F34" t="n">
-        <v>1.150845246604762</v>
+        <v>0.9217605676224222</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005564570057802373</v>
+        <v>0.005598397048506083</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000153446032880635</v>
+        <v>0.0002117278647925887</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3536286572053012</v>
+        <v>0.2538463299185156</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01306850672874027</v>
+        <v>0.01264096656701365</v>
       </c>
       <c r="K34" t="n">
-        <v>7.0977762643974e-06</v>
+        <v>6.096529738790322e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>65.302734375</v>
       </c>
     </row>
     <row r="35">
@@ -1992,42 +1992,42 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8835.9375</v>
+        <v>7453.125</v>
       </c>
       <c r="E35" t="n">
-        <v>45.70866904220046</v>
+        <v>42.28845955850041</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6812545674546041</v>
+        <v>0.729849239436572</v>
       </c>
       <c r="G35" t="n">
-        <v>0.005173041235545232</v>
+        <v>0.005673923295060852</v>
       </c>
       <c r="H35" t="n">
-        <v>7.710042850060948e-05</v>
+        <v>9.792526483006416e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>0.603889897079313</v>
+        <v>0.3827904710970554</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01105305101490122</v>
+        <v>0.007733308101429434</v>
       </c>
       <c r="K35" t="n">
-        <v>7.843719574707512e-06</v>
+        <v>5.314003176764224e-06</v>
       </c>
       <c r="L35" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M35" t="n">
-        <v>132.5390625</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="36">
@@ -2037,42 +2037,42 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6034.68017578125</v>
+        <v>8431.640625</v>
       </c>
       <c r="E36" t="n">
-        <v>39.95459529436957</v>
+        <v>37.17593825623822</v>
       </c>
       <c r="F36" t="n">
-        <v>1.592903727092721</v>
+        <v>0.1858790140599719</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00662083062077056</v>
+        <v>0.0044090990009715</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0002639582679932999</v>
+        <v>2.204541468582479e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5166887224062027</v>
+        <v>0.5650968007147001</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02794385303807713</v>
+        <v>0.003214103138169463</v>
       </c>
       <c r="K36" t="n">
-        <v>3.739874699088723e-05</v>
+        <v>8.417125296859614e-07</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01895691609977324</v>
+        <v>0.013</v>
       </c>
       <c r="M36" t="n">
-        <v>114.39892578125</v>
+        <v>109.611328125</v>
       </c>
     </row>
     <row r="37">
@@ -2082,42 +2082,42 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8096.484375</v>
+        <v>9029.296875</v>
       </c>
       <c r="E37" t="n">
-        <v>42.39653741578265</v>
+        <v>50.49161924312495</v>
       </c>
       <c r="F37" t="n">
-        <v>0.812354490517355</v>
+        <v>0.5233220592968558</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005236413170473468</v>
+        <v>0.005591976866208085</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0001003342256826569</v>
+        <v>5.795822936621029e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5088998245707217</v>
+        <v>0.5831792376424</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01186183782728227</v>
+        <v>0.006145784058175508</v>
       </c>
       <c r="K37" t="n">
-        <v>9.400591502232087e-06</v>
+        <v>6.236516575339194e-06</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01496598639455782</v>
+        <v>0.015</v>
       </c>
       <c r="M37" t="n">
-        <v>121.171875</v>
+        <v>135.439453125</v>
       </c>
     </row>
     <row r="38">
@@ -2127,42 +2127,42 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8484.08203125</v>
+        <v>6837.890625</v>
       </c>
       <c r="E38" t="n">
-        <v>66.05202726608206</v>
+        <v>37.07324356849066</v>
       </c>
       <c r="F38" t="n">
-        <v>2.139021274293116</v>
+        <v>1.460706575013601</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007785406485084434</v>
+        <v>0.005421736848633881</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0002521217105650691</v>
+        <v>0.0002136194705532601</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8176391341733746</v>
+        <v>0.352516007962907</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02951217342696124</v>
+        <v>0.01895973113218324</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001212566089657179</v>
+        <v>1.379286719353887e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0199546485260771</v>
+        <v>0.016</v>
       </c>
       <c r="M38" t="n">
-        <v>169.296875</v>
+        <v>109.40625</v>
       </c>
     </row>
     <row r="39">
@@ -2172,42 +2172,42 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9867.59033203125</v>
+        <v>7892.578125</v>
       </c>
       <c r="E39" t="n">
-        <v>57.15872696721598</v>
+        <v>44.63246583569445</v>
       </c>
       <c r="F39" t="n">
-        <v>1.403778864203331</v>
+        <v>1.169296294380351</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005792571949574422</v>
+        <v>0.005654991959385191</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001422615671068666</v>
+        <v>0.0001481513740961989</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4007968311123136</v>
+        <v>0.5682313410751598</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01119965974688782</v>
+        <v>0.01972339157692613</v>
       </c>
       <c r="K39" t="n">
-        <v>1.089710476309526e-05</v>
+        <v>1.696991248389281e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01496598639455782</v>
+        <v>0.016</v>
       </c>
       <c r="M39" t="n">
-        <v>147.67822265625</v>
+        <v>126.28125</v>
       </c>
     </row>
     <row r="40">
@@ -2217,42 +2217,42 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TAG9rearSOAEwf2.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6965.9912109375</v>
+        <v>8835.9375</v>
       </c>
       <c r="E40" t="n">
-        <v>47.10802734855123</v>
+        <v>45.70866904220046</v>
       </c>
       <c r="F40" t="n">
-        <v>1.592818222771324</v>
+        <v>0.6812545674546041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.006762573469025569</v>
+        <v>0.005173041235545232</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002286563641180591</v>
+        <v>7.710042850060948e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8383984621158194</v>
+        <v>0.603889897079313</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03428727594363365</v>
+        <v>0.01105305101490122</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0001076024034199839</v>
+        <v>7.843719574707512e-06</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01895691609977324</v>
+        <v>0.015</v>
       </c>
       <c r="M40" t="n">
-        <v>132.0537109375</v>
+        <v>132.5390625</v>
       </c>
     </row>
     <row r="41">
@@ -2262,42 +2262,42 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5765.51513671875</v>
+        <v>9257.8125</v>
       </c>
       <c r="E41" t="n">
-        <v>44.11800896330433</v>
+        <v>42.61482615059242</v>
       </c>
       <c r="F41" t="n">
-        <v>1.640236495179249</v>
+        <v>1.937571882560053</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007652049802511249</v>
+        <v>0.004603120461836144</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0002844908835176061</v>
+        <v>0.0002092904649516344</v>
       </c>
       <c r="I41" t="n">
-        <v>0.82042984918427</v>
+        <v>0.2419389405080637</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04150719801961222</v>
+        <v>0.01219269110522526</v>
       </c>
       <c r="K41" t="n">
-        <v>8.582140883013295e-05</v>
+        <v>1.34945953570482e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02095238095238095</v>
+        <v>0.013</v>
       </c>
       <c r="M41" t="n">
-        <v>120.80126953125</v>
+        <v>120.3515625</v>
       </c>
     </row>
     <row r="42">
@@ -2307,42 +2307,42 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7181.3232421875</v>
+        <v>5625.54931640625</v>
       </c>
       <c r="E42" t="n">
-        <v>133.6520053110834</v>
+        <v>33.51848576818803</v>
       </c>
       <c r="F42" t="n">
-        <v>2.737422847197609</v>
+        <v>1.527965535369878</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01861105548430539</v>
+        <v>0.005958260053011237</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0003811864129881116</v>
+        <v>0.0002716117928099479</v>
       </c>
       <c r="I42" t="n">
-        <v>1.315003549166834</v>
+        <v>0.5756480410420465</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02845540429242318</v>
+        <v>0.03804016897891271</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0003906725207577932</v>
+        <v>4.577131048278935e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04689342403628118</v>
+        <v>0.01795918367346939</v>
       </c>
       <c r="M42" t="n">
-        <v>336.7568359375</v>
+        <v>101.0302734375</v>
       </c>
     </row>
     <row r="43">
@@ -2352,492 +2352,492 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9636.1083984375</v>
+        <v>8096.484375</v>
       </c>
       <c r="E43" t="n">
-        <v>103.3675764226633</v>
+        <v>42.39653741578265</v>
       </c>
       <c r="F43" t="n">
-        <v>2.696589633465825</v>
+        <v>0.812354490517355</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01072710809681473</v>
+        <v>0.005236413170473468</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0002798421854514503</v>
+        <v>0.0001003342256826569</v>
       </c>
       <c r="I43" t="n">
-        <v>1.063063873271605</v>
+        <v>0.5088998245707217</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02929586776117891</v>
+        <v>0.01186183782728227</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0002228466023991204</v>
+        <v>9.400591502232087e-06</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02693877551020408</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="M43" t="n">
-        <v>259.5849609375</v>
+        <v>121.171875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1571.923828125</v>
+        <v>8484.08203125</v>
       </c>
       <c r="E44" t="n">
-        <v>9.62063403520332</v>
+        <v>66.05202726608206</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4104196867003094</v>
+        <v>2.139021274293116</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00612029276678048</v>
+        <v>0.007785406485084434</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0002610938770422867</v>
+        <v>0.0002521217105650691</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8494320504259278</v>
+        <v>0.8176391341733746</v>
       </c>
       <c r="J44" t="n">
-        <v>0.06867233002840922</v>
+        <v>0.02951217342696124</v>
       </c>
       <c r="K44" t="n">
-        <v>3.445558082796217e-05</v>
+        <v>0.0001212566089657179</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02095238095238095</v>
+        <v>0.0199546485260771</v>
       </c>
       <c r="M44" t="n">
-        <v>32.935546875</v>
+        <v>169.296875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1717.27294921875</v>
+        <v>9867.59033203125</v>
       </c>
       <c r="E45" t="n">
-        <v>9.959878775768658</v>
+        <v>57.15872696721598</v>
       </c>
       <c r="F45" t="n">
-        <v>0.29203510259203</v>
+        <v>1.403778864203331</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00579982278315149</v>
+        <v>0.005792571949574422</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0001700574755602406</v>
+        <v>0.0001422615671068666</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5311142412789732</v>
+        <v>0.4007968311123136</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02819934357163451</v>
+        <v>0.01119965974688782</v>
       </c>
       <c r="K45" t="n">
-        <v>7.694904040599237e-06</v>
+        <v>1.089710476309526e-05</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0199546485260771</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="M45" t="n">
-        <v>34.267578125</v>
+        <v>147.67822265625</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>TAG9rearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1324.2919921875</v>
+        <v>4925.72021484375</v>
       </c>
       <c r="E46" t="n">
-        <v>7.622910794261182</v>
+        <v>31.17215770264221</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2890715399957777</v>
+        <v>1.269811204607504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.005756216030325351</v>
+        <v>0.006328446672367694</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002182838389880179</v>
+        <v>0.0002577919876124723</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5193972407376809</v>
+        <v>0.2234311210255158</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03894128762063204</v>
+        <v>0.01126040994963272</v>
       </c>
       <c r="K46" t="n">
-        <v>7.654462485436786e-06</v>
+        <v>8.389824293364125e-06</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0199546485260771</v>
+        <v>0.01696145124716553</v>
       </c>
       <c r="M46" t="n">
-        <v>26.42578125</v>
+        <v>83.54736328125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>TAG9rearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1566.54052734375</v>
+        <v>6965.9912109375</v>
       </c>
       <c r="E47" t="n">
-        <v>8.47511701584801</v>
+        <v>47.10802734855123</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3252203903573368</v>
+        <v>1.592818222771324</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00541008474911182</v>
+        <v>0.006762573469025569</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002076041983470325</v>
+        <v>0.0002286563641180591</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5891493531602365</v>
+        <v>0.8383984621158194</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04701651098422082</v>
+        <v>0.03428727594363365</v>
       </c>
       <c r="K47" t="n">
-        <v>8.358966928090969e-06</v>
+        <v>0.0001076024034199839</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0199546485260771</v>
+        <v>0.01895691609977324</v>
       </c>
       <c r="M47" t="n">
-        <v>31.259765625</v>
+        <v>132.0537109375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>TAG9rearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2896.2158203125</v>
+        <v>7428.955078125</v>
       </c>
       <c r="E48" t="n">
-        <v>17.64594857659457</v>
+        <v>39.06739745773062</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8477814934544112</v>
+        <v>1.201359504822386</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006092760233141252</v>
+        <v>0.005258801143214191</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0002927204138270801</v>
+        <v>0.0001617131201075452</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3044676342009138</v>
+        <v>0.2544070939135851</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02086278072358842</v>
+        <v>0.00949022857279418</v>
       </c>
       <c r="K48" t="n">
-        <v>1.481259002194341e-05</v>
+        <v>6.087850704752272e-06</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01795918367346939</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="M48" t="n">
-        <v>52.013671875</v>
+        <v>111.181640625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>TAG9rearSOAEwf2.mat</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3181.53076171875</v>
+        <v>9759.92431640625</v>
       </c>
       <c r="E49" t="n">
-        <v>23.77123725378464</v>
+        <v>64.46101210565195</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8410663806219819</v>
+        <v>1.823439284899059</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007471635207745961</v>
+        <v>0.00660466311171022</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002643590282834842</v>
+        <v>0.0001868292443450501</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7639784506853806</v>
+        <v>0.1498917281382637</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03399763715734739</v>
+        <v>0.003973190294510142</v>
       </c>
       <c r="K49" t="n">
-        <v>8.4752380615837e-05</v>
+        <v>3.906617847528739e-06</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0199546485260771</v>
+        <v>0.01596371882086168</v>
       </c>
       <c r="M49" t="n">
-        <v>63.486328125</v>
+        <v>155.8046875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1108.9599609375</v>
+        <v>5765.51513671875</v>
       </c>
       <c r="E50" t="n">
-        <v>8.678393065799368</v>
+        <v>44.11800896330433</v>
       </c>
       <c r="F50" t="n">
-        <v>0.314773356507652</v>
+        <v>1.640236495179249</v>
       </c>
       <c r="G50" t="n">
-        <v>0.007825704598444446</v>
+        <v>0.007652049802511249</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0002838455558319227</v>
+        <v>0.0002844908835176061</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6477177926218369</v>
+        <v>0.82042984918427</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03461578736771427</v>
+        <v>0.04150719801961222</v>
       </c>
       <c r="K50" t="n">
-        <v>4.467073091259578e-05</v>
+        <v>8.582140883013295e-05</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02294784580498866</v>
+        <v>0.02095238095238095</v>
       </c>
       <c r="M50" t="n">
-        <v>25.4482421875</v>
+        <v>120.80126953125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1329.67529296875</v>
+        <v>7181.3232421875</v>
       </c>
       <c r="E51" t="n">
-        <v>7.861808061974378</v>
+        <v>133.6520053110834</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2890173248217244</v>
+        <v>2.737422847197609</v>
       </c>
       <c r="G51" t="n">
-        <v>0.005912577381521028</v>
+        <v>0.01861105548430539</v>
       </c>
       <c r="H51" t="n">
-        <v>0.000217359325506033</v>
+        <v>0.0003811864129881116</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4417594899440771</v>
+        <v>1.315003549166834</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02607370362249702</v>
+        <v>0.02845540429242318</v>
       </c>
       <c r="K51" t="n">
-        <v>1.102315274647968e-05</v>
+        <v>0.0003906725207577932</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01795918367346939</v>
+        <v>0.04689342403628118</v>
       </c>
       <c r="M51" t="n">
-        <v>23.8798828125</v>
+        <v>336.7568359375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2820.849609375</v>
+        <v>8833.99658203125</v>
       </c>
       <c r="E52" t="n">
-        <v>16.91664475820455</v>
+        <v>50.12861744312291</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8119843482689887</v>
+        <v>1.487596962782844</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00599700342123261</v>
+        <v>0.00567451175440647</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002878509884292965</v>
+        <v>0.0001683945594691177</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3606340431749557</v>
+        <v>0.4532538735301553</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02497509959854488</v>
+        <v>0.01774834499242398</v>
       </c>
       <c r="K52" t="n">
-        <v>2.015686542341589e-05</v>
+        <v>1.39769844130162e-05</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01795918367346939</v>
+        <v>0.01596371882086168</v>
       </c>
       <c r="M52" t="n">
-        <v>50.66015625</v>
+        <v>141.0234375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3143.84765625</v>
+        <v>9636.1083984375</v>
       </c>
       <c r="E53" t="n">
-        <v>21.52718374832284</v>
+        <v>103.3675764226633</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7471369004211759</v>
+        <v>2.696589633465825</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006847400415706081</v>
+        <v>0.01072710809681473</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0002376504786852061</v>
+        <v>0.0002798421854514503</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7079931926190203</v>
+        <v>1.063063873271605</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03253873365677377</v>
+        <v>0.02929586776117891</v>
       </c>
       <c r="K53" t="n">
-        <v>5.611238197416268e-05</v>
+        <v>0.0002228466023991204</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01895691609977324</v>
+        <v>0.02693877551020408</v>
       </c>
       <c r="M53" t="n">
-        <v>59.59765625</v>
+        <v>259.5849609375</v>
       </c>
     </row>
     <row r="54">
@@ -2847,42 +2847,42 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1103.57666015625</v>
+        <v>1184.326171875</v>
       </c>
       <c r="E54" t="n">
-        <v>8.758390607117335</v>
+        <v>6.206935700117958</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3435108516325402</v>
+        <v>0.2659739829428918</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007936368105027953</v>
+        <v>0.005240900562292961</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0003112704935096255</v>
+        <v>0.0002245783207862472</v>
       </c>
       <c r="I54" t="n">
-        <v>0.719224730105108</v>
+        <v>0.4544806209401729</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04144290226610918</v>
+        <v>0.0340317157868788</v>
       </c>
       <c r="K54" t="n">
-        <v>7.143893842566487e-05</v>
+        <v>1.061595171064413e-05</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02394557823129252</v>
+        <v>0.01696145124716553</v>
       </c>
       <c r="M54" t="n">
-        <v>26.42578125</v>
+        <v>20.087890625</v>
       </c>
     </row>
     <row r="55">
@@ -2892,42 +2892,42 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2287.90283203125</v>
+        <v>1571.923828125</v>
       </c>
       <c r="E55" t="n">
-        <v>14.94541524568772</v>
+        <v>9.62063403520332</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5338642222222918</v>
+        <v>0.4104196867003094</v>
       </c>
       <c r="G55" t="n">
-        <v>0.006532364502743699</v>
+        <v>0.00612029276678048</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0002333421746535956</v>
+        <v>0.0002610938770422867</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6645782241591653</v>
+        <v>0.8494320504259278</v>
       </c>
       <c r="J55" t="n">
-        <v>0.03565501669615303</v>
+        <v>0.06867233002840922</v>
       </c>
       <c r="K55" t="n">
-        <v>3.227752455764805e-05</v>
+        <v>3.445558082796217e-05</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01895691609977324</v>
+        <v>0.02095238095238095</v>
       </c>
       <c r="M55" t="n">
-        <v>43.37158203125</v>
+        <v>32.935546875</v>
       </c>
     </row>
     <row r="56">
@@ -2937,42 +2937,627 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>tokay_GG1rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3219.2138671875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20.0234111299988</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8755206251871084</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.006219969208660393</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.000271967213520988</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4594926127853923</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02822556108733762</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.897082795513452e-05</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01795918367346939</v>
+      </c>
+      <c r="M56" t="n">
+        <v>57.814453125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>tokay_GG1rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3714.4775390625</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.71143401429914</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.165036527154716</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.00799881913454726</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0003136474820221313</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7795363257266977</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.04831914061825707</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6.633406327865965e-05</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.02494331065759637</v>
+      </c>
+      <c r="M57" t="n">
+        <v>92.6513671875</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tokay_GG2rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1200.47607421875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.394995553115948</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2519856843560948</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.005327049568462</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0002099047950789714</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5048385465278958</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.03824997865729121</v>
+      </c>
+      <c r="K58" t="n">
+        <v>8.956459001846685e-06</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01895691609977324</v>
+      </c>
+      <c r="M58" t="n">
+        <v>22.75732421875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>tokay_GG2rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1566.54052734375</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.47511701584801</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3252203903573368</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.00541008474911182</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0002076041983470325</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5891493531602365</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.04701651098422082</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.358966928090969e-06</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0199546485260771</v>
+      </c>
+      <c r="M59" t="n">
+        <v>31.259765625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>tokay_GG2rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3181.53076171875</v>
+      </c>
+      <c r="E60" t="n">
+        <v>23.77123725378464</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8410663806219819</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.007471635207745961</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0002643590282834842</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7639784506853806</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.03399763715734739</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8.4752380615837e-05</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0199546485260771</v>
+      </c>
+      <c r="M60" t="n">
+        <v>63.486328125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>tokay_GG2rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3875.9765625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>24.50363537113344</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.029597969994021</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.006321925578241534</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0002656357574386186</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.422560715906031</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.02489216157674164</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.567833811017957e-05</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01895691609977324</v>
+      </c>
+      <c r="M61" t="n">
+        <v>73.4765625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>tokay_GG3rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1108.9599609375</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8.678393065799368</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.314773356507652</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.007825704598444446</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0002838455558319227</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6477177926218369</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.03461578736771427</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.467073091259578e-05</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.02294784580498866</v>
+      </c>
+      <c r="M62" t="n">
+        <v>25.4482421875</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tokay_GG3rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1620.37353515625</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.04416835460821</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.3879877034983211</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.00496439134562422</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0002394433722104133</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4480223865886795</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.04328180449187119</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6.595242686011463e-06</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01696145124716553</v>
+      </c>
+      <c r="M63" t="n">
+        <v>27.48388671875</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tokay_GG3rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2271.7529296875</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.70965411365783</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5113413912137622</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.005594646296068014</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0002250867092682045</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.3909491254480618</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.02635932684438953</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9.15997051517016e-06</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01795918367346939</v>
+      </c>
+      <c r="M64" t="n">
+        <v>40.798828125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>tokay_GG3rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3143.84765625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>21.52718374832284</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7471369004211759</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.006847400415706081</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0002376504786852061</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7079931926190203</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.03253873365677377</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5.611238197416268e-05</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01895691609977324</v>
+      </c>
+      <c r="M65" t="n">
+        <v>59.59765625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>3</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>tokay_GG4rearSOAEwf.mat</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D66" t="n">
+        <v>1103.57666015625</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8.758390607117335</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3435108516325402</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.007936368105027953</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0003112704935096255</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.719224730105108</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.04144290226610918</v>
+      </c>
+      <c r="K66" t="n">
+        <v>7.143893842566487e-05</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.02394557823129252</v>
+      </c>
+      <c r="M66" t="n">
+        <v>26.42578125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>tokay_GG4rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2287.90283203125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.94541524568772</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5338642222222918</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.006532364502743699</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0002333421746535956</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6645782241591653</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.03565501669615303</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.227752455764805e-05</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.01895691609977324</v>
+      </c>
+      <c r="M67" t="n">
+        <v>43.37158203125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>tokay_GG4rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>3159.99755859375</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E68" t="n">
         <v>20.07129432122049</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F68" t="n">
         <v>0.7513807705297714</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G68" t="n">
         <v>0.006351680325396371</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H68" t="n">
         <v>0.0002377789085584446</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I68" t="n">
         <v>0.5873801949412158</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J68" t="n">
         <v>0.02713505117771365</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K68" t="n">
         <v>4.920958947715558e-05</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L68" t="n">
         <v>0.01696145124716553</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M68" t="n">
         <v>53.59814453125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tokay</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>tokay_GG4rearSOAEwf.mat</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2847.76611328125</v>
+      </c>
+      <c r="E69" t="n">
+        <v>17.21242926158764</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7158581010939926</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.006044186417316118</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0002513753140594708</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3934178883184982</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.02582321441455002</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.170453377069811e-05</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.01795918367346939</v>
+      </c>
+      <c r="M69" t="n">
+        <v>51.1435546875</v>
       </c>
     </row>
   </sheetData>
